--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N2">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O2">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P2">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q2">
-        <v>2.446378796165333</v>
+        <v>1.330409636616111</v>
       </c>
       <c r="R2">
-        <v>22.017409165488</v>
+        <v>11.973686729545</v>
       </c>
       <c r="S2">
-        <v>0.04387314407123056</v>
+        <v>0.03118680493045431</v>
       </c>
       <c r="T2">
-        <v>0.04387314407123055</v>
+        <v>0.03118680493045431</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.085294</v>
       </c>
       <c r="O3">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P3">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q3">
-        <v>3.788327057456</v>
+        <v>2.584584289552666</v>
       </c>
       <c r="R3">
-        <v>34.094943517104</v>
+        <v>23.261258605974</v>
       </c>
       <c r="S3">
-        <v>0.06793952720700223</v>
+        <v>0.06058654706501825</v>
       </c>
       <c r="T3">
-        <v>0.06793952720700221</v>
+        <v>0.06058654706501826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N4">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O4">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P4">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q4">
-        <v>3.568913284154666</v>
+        <v>1.554070238385333</v>
       </c>
       <c r="R4">
-        <v>32.120219557392</v>
+        <v>13.986632145468</v>
       </c>
       <c r="S4">
-        <v>0.06400457972366444</v>
+        <v>0.03642974617654021</v>
       </c>
       <c r="T4">
-        <v>0.06400457972366441</v>
+        <v>0.03642974617654021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H5">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N5">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O5">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P5">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q5">
-        <v>2.139675392287999</v>
+        <v>2.011105562587444</v>
       </c>
       <c r="R5">
-        <v>19.257078530592</v>
+        <v>18.099950063287</v>
       </c>
       <c r="S5">
-        <v>0.03837275196247813</v>
+        <v>0.04714334228252737</v>
       </c>
       <c r="T5">
-        <v>0.03837275196247812</v>
+        <v>0.04714334228252738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H6">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J6">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N6">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O6">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P6">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q6">
-        <v>2.103743865229333</v>
+        <v>1.317208434810111</v>
       </c>
       <c r="R6">
-        <v>18.933694787064</v>
+        <v>11.854875913291</v>
       </c>
       <c r="S6">
-        <v>0.037728359088482</v>
+        <v>0.03087734888455671</v>
       </c>
       <c r="T6">
-        <v>0.03772835908848198</v>
+        <v>0.03087734888455671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N7">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O7">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P7">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q7">
-        <v>3.487057883562</v>
+        <v>2.779569902055</v>
       </c>
       <c r="R7">
-        <v>31.383520952058</v>
+        <v>25.016129118495</v>
       </c>
       <c r="S7">
-        <v>0.06253659210505053</v>
+        <v>0.06515730338998171</v>
       </c>
       <c r="T7">
-        <v>0.06253659210505048</v>
+        <v>0.06515730338998171</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J8">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.085294</v>
       </c>
       <c r="O8">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P8">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q8">
         <v>5.399865201546</v>
@@ -948,10 +948,10 @@
         <v>48.598786813914</v>
       </c>
       <c r="S8">
-        <v>0.09684071179982594</v>
+        <v>0.1265809702940061</v>
       </c>
       <c r="T8">
-        <v>0.09684071179982587</v>
+        <v>0.1265809702940061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J9">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N9">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O9">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P9">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q9">
-        <v>5.087113746558</v>
+        <v>3.246854759172</v>
       </c>
       <c r="R9">
-        <v>45.784023719022</v>
+        <v>29.221692832548</v>
       </c>
       <c r="S9">
-        <v>0.0912318544696841</v>
+        <v>0.07611116397906294</v>
       </c>
       <c r="T9">
-        <v>0.09123185446968403</v>
+        <v>0.07611116397906294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J10">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N10">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O10">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P10">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q10">
-        <v>3.049884162108</v>
+        <v>4.201719784472999</v>
       </c>
       <c r="R10">
-        <v>27.448957458972</v>
+        <v>37.81547806025699</v>
       </c>
       <c r="S10">
-        <v>0.05469635669442152</v>
+        <v>0.09849463780500332</v>
       </c>
       <c r="T10">
-        <v>0.05469635669442149</v>
+        <v>0.09849463780500334</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I11">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J11">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N11">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O11">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P11">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q11">
-        <v>2.998667516961</v>
+        <v>2.751989176389</v>
       </c>
       <c r="R11">
-        <v>26.988007652649</v>
+        <v>24.76790258750099</v>
       </c>
       <c r="S11">
-        <v>0.0537778418450852</v>
+        <v>0.06451076965517374</v>
       </c>
       <c r="T11">
-        <v>0.05377784184508515</v>
+        <v>0.06451076965517376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H12">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N12">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O12">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P12">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q12">
-        <v>0.4223308285484444</v>
+        <v>0.1773713343505555</v>
       </c>
       <c r="R12">
-        <v>3.800977456936</v>
+        <v>1.596342009155</v>
       </c>
       <c r="S12">
-        <v>0.007574044263166445</v>
+        <v>0.004157851125248064</v>
       </c>
       <c r="T12">
-        <v>0.007574044263166442</v>
+        <v>0.004157851125248065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H13">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.085294</v>
       </c>
       <c r="O13">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P13">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q13">
-        <v>0.6539981900986666</v>
+        <v>0.3445789564073333</v>
       </c>
       <c r="R13">
-        <v>5.885983710888</v>
+        <v>3.101210607666</v>
       </c>
       <c r="S13">
-        <v>0.01172874652997266</v>
+        <v>0.008077449531971382</v>
       </c>
       <c r="T13">
-        <v>0.01172874652997265</v>
+        <v>0.008077449531971384</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H14">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J14">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N14">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O14">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P14">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q14">
-        <v>0.6161196731582221</v>
+        <v>0.2071899543346667</v>
       </c>
       <c r="R14">
-        <v>5.545077058424</v>
+        <v>1.864709589012</v>
       </c>
       <c r="S14">
-        <v>0.01104943650916247</v>
+        <v>0.004856844472218352</v>
       </c>
       <c r="T14">
-        <v>0.01104943650916247</v>
+        <v>0.004856844472218353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H15">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J15">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N15">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O15">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P15">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q15">
-        <v>0.3693830582026666</v>
+        <v>0.2681222890592222</v>
       </c>
       <c r="R15">
-        <v>3.324447523823999</v>
+        <v>2.413100601533</v>
       </c>
       <c r="S15">
-        <v>0.00662448356542332</v>
+        <v>0.006285190137125909</v>
       </c>
       <c r="T15">
-        <v>0.006624483565423319</v>
+        <v>0.00628519013712591</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H16">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J16">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N16">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O16">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P16">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q16">
-        <v>0.3631800157231111</v>
+        <v>0.1756113389965555</v>
       </c>
       <c r="R16">
-        <v>3.268620141508</v>
+        <v>1.580502050969</v>
       </c>
       <c r="S16">
-        <v>0.00651323874233538</v>
+        <v>0.004116594184323228</v>
       </c>
       <c r="T16">
-        <v>0.006513238742335377</v>
+        <v>0.004116594184323228</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H17">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N17">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O17">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P17">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q17">
-        <v>3.028776180268666</v>
+        <v>1.798507676945555</v>
       </c>
       <c r="R17">
-        <v>27.258985622418</v>
+        <v>16.18656909251</v>
       </c>
       <c r="S17">
-        <v>0.05431780798816983</v>
+        <v>0.04215972775835374</v>
       </c>
       <c r="T17">
-        <v>0.0543178079881698</v>
+        <v>0.04215972775835375</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H18">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J18">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.085294</v>
       </c>
       <c r="O18">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P18">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q18">
-        <v>4.690195472866</v>
+        <v>3.493957468841333</v>
       </c>
       <c r="R18">
-        <v>42.211759255794</v>
+        <v>31.445617219572</v>
       </c>
       <c r="S18">
-        <v>0.08411355675001389</v>
+        <v>0.081903623528473</v>
       </c>
       <c r="T18">
-        <v>0.08411355675001383</v>
+        <v>0.08190362352847304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H19">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J19">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N19">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O19">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P19">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q19">
-        <v>4.418546940251333</v>
+        <v>2.100862153522667</v>
       </c>
       <c r="R19">
-        <v>39.766922462262</v>
+        <v>18.907759381704</v>
       </c>
       <c r="S19">
-        <v>0.07924183564663322</v>
+        <v>0.04924737191045398</v>
       </c>
       <c r="T19">
-        <v>0.07924183564663316</v>
+        <v>0.04924737191045399</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H20">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J20">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N20">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O20">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P20">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q20">
-        <v>2.649057403467999</v>
+        <v>2.718703092576222</v>
       </c>
       <c r="R20">
-        <v>23.841516631212</v>
+        <v>24.468327833186</v>
       </c>
       <c r="S20">
-        <v>0.04750796454640987</v>
+        <v>0.06373049373548917</v>
       </c>
       <c r="T20">
-        <v>0.04750796454640985</v>
+        <v>0.06373049373548918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H21">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J21">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N21">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O21">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P21">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q21">
-        <v>2.604571834247666</v>
+        <v>1.780661697677556</v>
       </c>
       <c r="R21">
-        <v>23.441146508229</v>
+        <v>16.025955279098</v>
       </c>
       <c r="S21">
-        <v>0.04671016422597149</v>
+        <v>0.04174139113562779</v>
       </c>
       <c r="T21">
-        <v>0.04671016422597146</v>
+        <v>0.0417413911356278</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H22">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J22">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.094639333333333</v>
+        <v>0.8725483333333334</v>
       </c>
       <c r="N22">
-        <v>3.283918</v>
+        <v>2.617645</v>
       </c>
       <c r="O22">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="P22">
-        <v>0.1741561977210106</v>
+        <v>0.1512279695296132</v>
       </c>
       <c r="Q22">
-        <v>0.3264546532597777</v>
+        <v>0.3654322583327778</v>
       </c>
       <c r="R22">
-        <v>2.938091879338</v>
+        <v>3.288890324995</v>
       </c>
       <c r="S22">
-        <v>0.00585460929339329</v>
+        <v>0.008566282325575358</v>
       </c>
       <c r="T22">
-        <v>0.005854609293393288</v>
+        <v>0.00856628232557536</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H23">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J23">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>5.085294</v>
       </c>
       <c r="O23">
-        <v>0.2696886668100327</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="P23">
-        <v>0.2696886668100326</v>
+        <v>0.2937902909222315</v>
       </c>
       <c r="Q23">
-        <v>0.5055296415726667</v>
+        <v>0.7099245584126667</v>
       </c>
       <c r="R23">
-        <v>4.549766774154</v>
+        <v>6.389321025714001</v>
       </c>
       <c r="S23">
-        <v>0.00906612452321804</v>
+        <v>0.01664170050276275</v>
       </c>
       <c r="T23">
-        <v>0.009066124523218037</v>
+        <v>0.01664170050276276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H24">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J24">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.596920666666667</v>
+        <v>1.019236</v>
       </c>
       <c r="N24">
-        <v>4.790762</v>
+        <v>3.057708</v>
       </c>
       <c r="O24">
-        <v>0.2540687356098125</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="P24">
-        <v>0.2540687356098124</v>
+        <v>0.1766515215984041</v>
       </c>
       <c r="Q24">
-        <v>0.4762501827268888</v>
+        <v>0.4268665689053334</v>
       </c>
       <c r="R24">
-        <v>4.286251644542</v>
+        <v>3.841799120148</v>
       </c>
       <c r="S24">
-        <v>0.008541029260668331</v>
+        <v>0.01000639506012862</v>
       </c>
       <c r="T24">
-        <v>0.008541029260668328</v>
+        <v>0.01000639506012862</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H25">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J25">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9574039999999999</v>
+        <v>1.318982333333333</v>
       </c>
       <c r="N25">
-        <v>2.872212</v>
+        <v>3.956947</v>
       </c>
       <c r="O25">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="P25">
-        <v>0.1523221715550325</v>
+        <v>0.2286028320671039</v>
       </c>
       <c r="Q25">
-        <v>0.2855269140546666</v>
+        <v>0.5524034306841111</v>
       </c>
       <c r="R25">
-        <v>2.569742226492</v>
+        <v>4.971630876157</v>
       </c>
       <c r="S25">
-        <v>0.005120614786299696</v>
+        <v>0.01294916810695814</v>
       </c>
       <c r="T25">
-        <v>0.005120614786299695</v>
+        <v>0.01294916810695814</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H26">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J26">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.9413263333333334</v>
+        <v>0.8638903333333333</v>
       </c>
       <c r="N26">
-        <v>2.823979</v>
+        <v>2.591671</v>
       </c>
       <c r="O26">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826473</v>
       </c>
       <c r="P26">
-        <v>0.1497642283041117</v>
+        <v>0.1497273858826472</v>
       </c>
       <c r="Q26">
-        <v>0.2807320661654444</v>
+        <v>0.3618061984667778</v>
       </c>
       <c r="R26">
-        <v>2.526588595489</v>
+        <v>3.256255786201</v>
       </c>
       <c r="S26">
-        <v>0.00503462440223766</v>
+        <v>0.008481282022965763</v>
       </c>
       <c r="T26">
-        <v>0.005034624402237658</v>
+        <v>0.008481282022965763</v>
       </c>
     </row>
   </sheetData>
